--- a/demo/rnaseq/reads.xlsx
+++ b/demo/rnaseq/reads.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/2F091FD0-FD3A-48CF-B936-7D98186568A4/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/git/nf/demo/rnaseq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6FB4C84-17B1-434E-A610-AA2BF4B67290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A98D702-D4DC-254C-B0BA-2D9F0218E696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1680" windowWidth="16420" windowHeight="18080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="22040" yWindow="8560" windowWidth="16420" windowHeight="18080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>SampleID</t>
   </si>
@@ -63,15 +63,9 @@
     <t>r2</t>
   </si>
   <si>
-    <t>PHB47</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
-    <t>SRR6827494</t>
-  </si>
-  <si>
     <t>sra</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>B73</t>
   </si>
   <si>
-    <t>/home/springer/zhoux379/projects/barn/data/raw_seqs/cage/B73_root_SRR2078287.fq.gz</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>/home/springer/data_release/umgc/hiseq/170127_D00635_0197_ACAC47ANXX/Springer_Project_052_Run1_Redemux/briggs_pool1_18_Index2_S2_R2_001.fastq</t>
   </si>
   <si>
-    <t>sedling</t>
-  </si>
-  <si>
     <t>SRR039512</t>
   </si>
   <si>
@@ -124,6 +112,15 @@
   </si>
   <si>
     <t>s04</t>
+  </si>
+  <si>
+    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_root_SRR2078287.fq.gz</t>
+  </si>
+  <si>
+    <t>SRR651063</t>
+  </si>
+  <si>
+    <t>Ki11</t>
   </si>
 </sst>
 </file>
@@ -534,25 +531,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>9075105</v>
@@ -561,88 +558,88 @@
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>11716241</v>
+        <v>11271601</v>
       </c>
       <c r="I3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
